--- a/acm/acm_batch_invoice/acm_batch_invoice_import_export/acm_utility.xlsx
+++ b/acm/acm_batch_invoice/acm_batch_invoice_import_export/acm_utility.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Batch Invoice Number</t>
   </si>
   <si>
     <t xml:space="preserve">Invoice Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due Date</t>
   </si>
   <si>
     <t xml:space="preserve">Period</t>
@@ -242,12 +245,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -313,27 +316,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ9"/>
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="16.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="12" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,88 +363,94 @@
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="L8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="ALX7" s="0"/>
-      <c r="ALY7" s="0"/>
-      <c r="ALZ7" s="0"/>
-      <c r="AMA7" s="0"/>
-      <c r="AMB7" s="0"/>
-      <c r="AMC7" s="0"/>
-      <c r="AMD7" s="0"/>
-      <c r="AME7" s="0"/>
-      <c r="AMF7" s="0"/>
-      <c r="AMG7" s="0"/>
-      <c r="AMH7" s="0"/>
-      <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="N8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
